--- a/data/trans_orig/IP16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0220CB3F-F354-497F-A832-E6CFAC8F09DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0341442E-98AF-438A-BD0A-E0A6EAFC5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FF3083F-254A-4E08-AE92-5E060D1754E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2CDEAB7-9F60-4397-B8A5-D669EF504BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="165">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>3,32%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>18,22%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -112,13 +112,13 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,75%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>80,03%</t>
+    <t>81,78%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -127,7 +127,7 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>92,25%</t>
+    <t>92,06%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,37 +136,37 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,42%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,36%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,15%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -175,37 +175,37 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>12,69%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>20,08%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>9,41%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>87,31%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>79,92%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>90,59%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -214,28 +214,28 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -244,16 +244,16 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -265,37 +265,31 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,7%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>87,21%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>93,3%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -304,162 +298,168 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
     <t>99,04%</t>
   </si>
   <si>
@@ -469,10 +469,10 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -481,46 +481,58 @@
     <t>98,07%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>3,19%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,81%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -932,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E80D53-2C6B-4A61-AE97-68130724A9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E956F5-87F1-4EEF-B367-A6E0FC82D538}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EE62B5-BBF5-4F4F-B2DB-009862794104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11A354C-C8EA-4346-AA32-709E1DE5F4D3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,13 +2121,13 @@
         <v>627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2124,13 +2136,13 @@
         <v>627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2160,10 +2172,10 @@
         <v>24896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2175,10 +2187,10 @@
         <v>47748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2249,13 +2261,13 @@
         <v>607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2270,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2279,13 +2291,13 @@
         <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,10 +2312,10 @@
         <v>122787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2318,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -2330,10 +2342,10 @@
         <v>238396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2404,13 +2416,13 @@
         <v>1266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2425,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2434,13 +2446,13 @@
         <v>1266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,10 +2467,10 @@
         <v>43966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2473,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2485,7 +2497,7 @@
         <v>89825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>101</v>
@@ -2722,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D387E1BA-EED8-4DF3-8301-EABCAACB60F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA408AE-CC76-4C85-9309-3A86115C3B74}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3466,10 +3478,10 @@
         <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3478,13 +3490,13 @@
         <v>5398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3511,10 @@
         <v>146755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -3514,13 +3526,13 @@
         <v>158508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3529,13 +3541,13 @@
         <v>305263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0341442E-98AF-438A-BD0A-E0A6EAFC5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9016C8A0-AF7F-4C60-A6FF-8EB4B0653877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2CDEAB7-9F60-4397-B8A5-D669EF504BE7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9C051B72-393A-4D5E-A192-7338ED73F1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="165">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,259 +100,250 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>83,39%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>92,06%</t>
+    <t>92,14%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>86,44%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,3%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,49%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>8,53%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>91,47%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -352,187 +352,187 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
     <t>4,16%</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
     <t>95,84%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>96,76%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E956F5-87F1-4EEF-B367-A6E0FC82D538}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7438CF4C-A2F0-47D8-9638-DA1A78835C16}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1077,81 +1077,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>673</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19585</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>41632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1160,52 +1164,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1214,97 +1220,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>1367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7">
-        <v>19585</v>
+        <v>80038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>22048</v>
+        <v>86971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="N8" s="7">
-        <v>41632</v>
+        <v>167009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,54 +1319,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1369,97 +1375,97 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>698</v>
+        <v>767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>669</v>
+        <v>813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1367</v>
+        <v>1580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>86971</v>
+        <v>21784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>80038</v>
+        <v>34453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>167009</v>
+        <v>56236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,153 +1474,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>813</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>767</v>
+        <v>2184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1580</v>
+        <v>3620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>34453</v>
+        <v>123869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>21784</v>
+        <v>141009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="N14" s="7">
-        <v>56236</v>
+        <v>264878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,216 +1629,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2184</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>212</v>
-      </c>
-      <c r="D17" s="7">
-        <v>141735</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123869</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>400</v>
-      </c>
-      <c r="N17" s="7">
-        <v>265604</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1845,8 +1695,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11A354C-C8EA-4346-AA32-709E1DE5F4D3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBF3AB-F0CD-40F7-AA82-06EADE672F85}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1862,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1963,88 +1813,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>627</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>627</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24896</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22852</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47748</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,48 +1915,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25523</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48375</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2112,88 +1980,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>22852</v>
+        <v>115609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="I8" s="7">
-        <v>24896</v>
+        <v>122787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="N8" s="7">
-        <v>47748</v>
+        <v>238396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,153 +2070,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>22852</v>
+        <v>115609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>25523</v>
+        <v>123394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>48375</v>
+        <v>239003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1266</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>607</v>
+        <v>1266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>122787</v>
+        <v>45859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>115609</v>
+        <v>43966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>343</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>238396</v>
+        <v>89825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,153 +2225,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
-        <v>123394</v>
+        <v>45859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>115609</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>239003</v>
+        <v>91091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1266</v>
+        <v>627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1266</v>
+        <v>2500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>43966</v>
+        <v>186365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="I14" s="7">
-        <v>45859</v>
+        <v>189605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>536</v>
       </c>
       <c r="N14" s="7">
-        <v>89825</v>
+        <v>375970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,216 +2380,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7">
-        <v>45232</v>
+        <v>186992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>45859</v>
+        <v>191478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="N15" s="7">
-        <v>91091</v>
+        <v>378470</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1873</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>627</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>268</v>
-      </c>
-      <c r="D17" s="7">
-        <v>189605</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="7">
-        <v>268</v>
-      </c>
-      <c r="I17" s="7">
-        <v>186365</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>536</v>
-      </c>
-      <c r="N17" s="7">
-        <v>375970</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>271</v>
-      </c>
-      <c r="D18" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>540</v>
-      </c>
-      <c r="N18" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2734,8 +2446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA408AE-CC76-4C85-9309-3A86115C3B74}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD004D-B0AE-40CA-B386-DA53C32C652B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2751,7 +2463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2854,86 +2566,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18856</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12775</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31630</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,147 +2666,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18856</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12775</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31630</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3301</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1370</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
-        <v>12775</v>
+        <v>102609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>18856</v>
+        <v>96322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="N8" s="7">
-        <v>31630</v>
+        <v>198931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,153 +2821,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>12775</v>
+        <v>105910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I9" s="7">
-        <v>18856</v>
+        <v>97692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N9" s="7">
-        <v>31630</v>
+        <v>203601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1370</v>
+        <v>727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3301</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4670</v>
+        <v>727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>96322</v>
+        <v>37043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>102609</v>
+        <v>37659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7">
-        <v>198931</v>
+        <v>74702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,153 +2976,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>97692</v>
+        <v>37770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>105910</v>
+        <v>37659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>203601</v>
+        <v>75429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>727</v>
+        <v>1370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>727</v>
+        <v>5398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>37659</v>
+        <v>158508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="I14" s="7">
-        <v>37043</v>
+        <v>146755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>74702</v>
+        <v>305263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,216 +3131,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7">
-        <v>37659</v>
+        <v>162536</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>37770</v>
+        <v>148125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>75429</v>
+        <v>310661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>213</v>
-      </c>
-      <c r="D17" s="7">
-        <v>146755</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>239</v>
-      </c>
-      <c r="I17" s="7">
-        <v>158508</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" s="7">
-        <v>452</v>
-      </c>
-      <c r="N17" s="7">
-        <v>305263</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>460</v>
-      </c>
-      <c r="N18" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
